--- a/Data_analysis.xlsx
+++ b/Data_analysis.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D54DA7A-7537-4C7E-822F-BDE7D88F103A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220D0B94-D685-4C93-99E3-4BDE1B085D53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="candados" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="6">
   <si>
     <t>DEFAULT</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>SNR</t>
+  </si>
+  <si>
+    <t>SSIM</t>
   </si>
 </sst>
 </file>
@@ -315,7 +318,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>candados!$F$3:$F$10</c:f>
+              <c:f>candados!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -348,7 +351,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>candados!$E$3:$E$10</c:f>
+              <c:f>candados!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -924,7 +927,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>gradient!$F$3:$F$10</c:f>
+              <c:f>gradient!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -957,7 +960,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>gradient!$G$3:$G$10</c:f>
+              <c:f>gradient!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1526,7 +1529,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>graph!$F$3:$F$10</c:f>
+              <c:f>graph!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1559,7 +1562,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>graph!$E$3:$E$10</c:f>
+              <c:f>graph!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2133,7 +2136,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>graph!$F$3:$F$10</c:f>
+              <c:f>graph!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2166,7 +2169,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>graph!$G$3:$G$10</c:f>
+              <c:f>graph!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2735,7 +2738,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>lena!$F$3:$F$10</c:f>
+              <c:f>lena!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2768,7 +2771,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>lena!$E$3:$E$10</c:f>
+              <c:f>lena!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3344,7 +3347,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>lena!$F$3:$F$10</c:f>
+              <c:f>lena!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3377,7 +3380,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>lena!$G$3:$G$10</c:f>
+              <c:f>lena!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3948,7 +3951,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>lennon!$F$3:$F$10</c:f>
+              <c:f>lennon!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3981,7 +3984,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>lennon!$E$3:$E$10</c:f>
+              <c:f>lennon!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4555,7 +4558,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>lennon!$F$3:$F$10</c:f>
+              <c:f>lennon!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4588,7 +4591,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>lennon!$G$3:$G$10</c:f>
+              <c:f>lennon!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5157,7 +5160,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>noise!$F$3:$F$10</c:f>
+              <c:f>noise!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5190,7 +5193,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>noise!$E$3:$E$10</c:f>
+              <c:f>noise!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5766,7 +5769,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>noise!$F$3:$F$10</c:f>
+              <c:f>noise!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5799,7 +5802,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>noise!$G$3:$G$10</c:f>
+              <c:f>noise!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6370,7 +6373,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>pattern!$F$3:$F$10</c:f>
+              <c:f>pattern!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6403,7 +6406,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>pattern!$E$3:$E$10</c:f>
+              <c:f>pattern!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6978,7 +6981,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>candados!$F$3:$F$10</c:f>
+              <c:f>candados!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7011,7 +7014,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>candados!$G$3:$G$10</c:f>
+              <c:f>candados!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7586,7 +7589,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>pattern!$F$3:$F$10</c:f>
+              <c:f>pattern!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7619,7 +7622,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>pattern!$G$3:$G$10</c:f>
+              <c:f>pattern!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8189,7 +8192,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>color_bars!$F$3:$F$10</c:f>
+              <c:f>color_bars!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8222,7 +8225,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>color_bars!$E$3:$E$10</c:f>
+              <c:f>color_bars!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8796,7 +8799,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>color_bars!$F$3:$F$10</c:f>
+              <c:f>color_bars!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8829,7 +8832,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>color_bars!$G$3:$G$10</c:f>
+              <c:f>color_bars!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9398,7 +9401,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>cshapes!$F$3:$F$10</c:f>
+              <c:f>cshapes!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9431,7 +9434,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>cshapes!$E$3:$E$10</c:f>
+              <c:f>cshapes!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -10005,7 +10008,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>cshapes!$F$3:$F$10</c:f>
+              <c:f>cshapes!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -10038,7 +10041,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>cshapes!$G$3:$G$10</c:f>
+              <c:f>cshapes!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -10607,7 +10610,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>explorer!$F$3:$F$10</c:f>
+              <c:f>explorer!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -10640,7 +10643,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>explorer!$E$3:$E$10</c:f>
+              <c:f>explorer!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11216,7 +11219,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>explorer!$F$3:$F$10</c:f>
+              <c:f>explorer!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11249,7 +11252,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>explorer!$G$3:$G$10</c:f>
+              <c:f>explorer!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11820,7 +11823,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>gradient!$F$3:$F$10</c:f>
+              <c:f>gradient!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11853,7 +11856,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>gradient!$E$3:$E$10</c:f>
+              <c:f>gradient!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -23337,16 +23340,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23373,16 +23376,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23416,16 +23419,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23454,14 +23457,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -23497,16 +23500,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23535,16 +23538,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23578,16 +23581,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23616,16 +23619,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23659,16 +23662,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23697,16 +23700,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23740,16 +23743,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23778,16 +23781,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23821,16 +23824,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23859,15 +23862,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -23902,16 +23905,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23940,16 +23943,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23983,16 +23986,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24021,16 +24024,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24064,14 +24067,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -24102,16 +24105,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27550,27 +27553,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -27580,17 +27585,23 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.802</v>
       </c>
@@ -27600,17 +27611,17 @@
       <c r="C3">
         <v>37.085999999999999</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3.802</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>66.491</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>37.085999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>28.584</v>
       </c>
@@ -27620,17 +27631,17 @@
       <c r="C4">
         <v>28.324999999999999</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>28.584</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>85.227999999999994</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>28.324999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>57.307000000000002</v>
       </c>
@@ -27640,17 +27651,17 @@
       <c r="C5">
         <v>25.303999999999998</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>57.307000000000002</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>90.224999999999994</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>25.303999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>98.405000000000001</v>
       </c>
@@ -27660,17 +27671,17 @@
       <c r="C6">
         <v>22.956</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>98.405000000000001</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>93.790999999999997</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>22.956</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>141.84</v>
       </c>
@@ -27680,17 +27691,17 @@
       <c r="C7">
         <v>21.367999999999999</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>141.84</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>95.894999999999996</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>21.367999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>176.95</v>
       </c>
@@ -27700,17 +27711,17 @@
       <c r="C8">
         <v>20.408000000000001</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>176.95</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>96.86</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>20.408000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>282.2</v>
       </c>
@@ -27720,17 +27731,17 @@
       <c r="C9">
         <v>18.381</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>282.2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>98.174999999999997</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>18.381</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>501.02</v>
       </c>
@@ -27740,20 +27751,20 @@
       <c r="C10">
         <v>15.888</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>501.02</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>98.921999999999997</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>15.888</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -27763,27 +27774,29 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC42B418-3195-4346-A076-C36A46A17E97}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -27793,17 +27806,23 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.54688000000000003</v>
       </c>
@@ -27813,17 +27832,17 @@
       <c r="C3">
         <v>47.003999999999998</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.54688000000000003</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>69.28</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>47.003999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>27.780999999999999</v>
       </c>
@@ -27833,17 +27852,17 @@
       <c r="C4">
         <v>29.945</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>27.780999999999999</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>78.72</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>29.945</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>36.609000000000002</v>
       </c>
@@ -27853,17 +27872,17 @@
       <c r="C5">
         <v>28.747</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>36.609000000000002</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>82.424999999999997</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>28.747</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>270.2</v>
       </c>
@@ -27873,17 +27892,17 @@
       <c r="C6">
         <v>20.065999999999999</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>270.2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>86.915999999999997</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>20.065999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>869.44</v>
       </c>
@@ -27893,17 +27912,17 @@
       <c r="C7">
         <v>14.99</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>869.44</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>90.108999999999995</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>14.99</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1479.8</v>
       </c>
@@ -27913,17 +27932,17 @@
       <c r="C8">
         <v>12.680999999999999</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1479.8</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>92.061000000000007</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>12.680999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6031.1</v>
       </c>
@@ -27933,17 +27952,17 @@
       <c r="C9">
         <v>6.5787000000000004</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>6031.1</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>95.968000000000004</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>6.5787000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6980</v>
       </c>
@@ -27953,20 +27972,20 @@
       <c r="C10">
         <v>5.9440999999999997</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>6980</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>98.713999999999999</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>5.9440999999999997</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -27975,27 +27994,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538666A5-2273-42DB-B81E-15C7E3096FF1}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -28005,17 +28026,23 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.20832999999999999</v>
       </c>
@@ -28025,17 +28052,17 @@
       <c r="C3">
         <v>51.899000000000001</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.20832999999999999</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>99.393000000000001</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>51.899000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.20832999999999999</v>
       </c>
@@ -28045,17 +28072,17 @@
       <c r="C4">
         <v>51.899000000000001</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.20832999999999999</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>99.429000000000002</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>51.899000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -28065,17 +28092,17 @@
       <c r="C5">
         <v>51.106999999999999</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.25</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>99.447999999999993</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>51.106999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.58333000000000002</v>
       </c>
@@ -28085,17 +28112,17 @@
       <c r="C6">
         <v>47.427</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.58333000000000002</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>99.465999999999994</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>47.427</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.70833000000000002</v>
       </c>
@@ -28105,17 +28132,17 @@
       <c r="C7">
         <v>46.584000000000003</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.70833000000000002</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>99.483000000000004</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>46.584000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4.3333000000000004</v>
       </c>
@@ -28125,17 +28152,17 @@
       <c r="C8">
         <v>38.718000000000004</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>4.3333000000000004</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>99.492000000000004</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>38.718000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.8332999999999999</v>
       </c>
@@ -28145,17 +28172,17 @@
       <c r="C9">
         <v>42.454000000000001</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.8332999999999999</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>99.509</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>42.454000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>97.582999999999998</v>
       </c>
@@ -28165,20 +28192,20 @@
       <c r="C10">
         <v>25.193000000000001</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>97.582999999999998</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>99.527000000000001</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>25.193000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -28188,27 +28215,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E559FD-A27B-476B-A3BF-A2A9DF1AC4C4}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -28218,17 +28247,23 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.91712000000000005</v>
       </c>
@@ -28238,17 +28273,17 @@
       <c r="C3">
         <v>44.280999999999999</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.91712000000000005</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>93.173000000000002</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>44.280999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9.4936000000000007</v>
       </c>
@@ -28258,17 +28293,17 @@
       <c r="C4">
         <v>34.131</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>9.4936000000000007</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>96.116</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>34.131</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23.516999999999999</v>
       </c>
@@ -28278,17 +28313,17 @@
       <c r="C5">
         <v>30.192</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>23.516999999999999</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>97.242000000000004</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>30.192</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>43.939</v>
       </c>
@@ -28298,17 +28333,17 @@
       <c r="C6">
         <v>27.477</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>43.939</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>98.123000000000005</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>27.477</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>66.86</v>
       </c>
@@ -28318,17 +28353,17 @@
       <c r="C7">
         <v>25.654</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>66.86</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>98.606999999999999</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>25.654</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>77.442999999999998</v>
       </c>
@@ -28338,17 +28373,17 @@
       <c r="C8">
         <v>25.015999999999998</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>77.442999999999998</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>98.805999999999997</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>25.015999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>126.02</v>
       </c>
@@ -28358,17 +28393,17 @@
       <c r="C9">
         <v>22.901</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>126.02</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>99.105999999999995</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>22.901</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>270.49</v>
       </c>
@@ -28378,20 +28413,20 @@
       <c r="C10">
         <v>19.584</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>270.49</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>99.313999999999993</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>19.584</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -28401,27 +28436,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CBBAC8-FC50-4A01-841F-37AAACC7C6DB}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -28431,17 +28468,23 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.0173999999999999</v>
       </c>
@@ -28451,17 +28494,17 @@
       <c r="C3">
         <v>32.543999999999997</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2.0173999999999999</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>81.468000000000004</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>32.543999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>27.963000000000001</v>
       </c>
@@ -28471,17 +28514,17 @@
       <c r="C4">
         <v>21.126000000000001</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>27.963000000000001</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>89.731999999999999</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>21.126000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>74.153000000000006</v>
       </c>
@@ -28491,17 +28534,17 @@
       <c r="C5">
         <v>16.890999999999998</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>74.153000000000006</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>92.953000000000003</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>16.890999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>153.32</v>
       </c>
@@ -28511,17 +28554,17 @@
       <c r="C6">
         <v>13.736000000000001</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>153.32</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>95.460999999999999</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>13.736000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>244.2</v>
       </c>
@@ -28531,17 +28574,17 @@
       <c r="C7">
         <v>11.715</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>244.2</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>96.863</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>11.715</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>312.17</v>
       </c>
@@ -28551,17 +28594,17 @@
       <c r="C8">
         <v>10.648</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>312.17</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>97.521000000000001</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>10.648</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>481.96</v>
       </c>
@@ -28571,17 +28614,17 @@
       <c r="C9">
         <v>8.7619000000000007</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>481.96</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>98.42</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>8.7619000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>721.35</v>
       </c>
@@ -28591,49 +28634,52 @@
       <c r="C10">
         <v>7.0106000000000002</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>721.35</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>99.031000000000006</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>7.0106000000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B064B2-ACE5-4796-ABC7-9168FD32F251}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+      <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -28643,17 +28689,23 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.24318999999999999</v>
       </c>
@@ -28663,17 +28715,17 @@
       <c r="C3">
         <v>51.302999999999997</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.24318999999999999</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>94.861000000000004</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>51.302999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.39748</v>
       </c>
@@ -28683,17 +28735,17 @@
       <c r="C4">
         <v>49.17</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.39748</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>98.075999999999993</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>49.17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.3449</v>
       </c>
@@ -28703,17 +28755,17 @@
       <c r="C5">
         <v>43.875999999999998</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.3449</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>98.454999999999998</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>43.875999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.6263999999999998</v>
       </c>
@@ -28723,17 +28775,17 @@
       <c r="C6">
         <v>40.969000000000001</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2.6263999999999998</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>99.289000000000001</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>40.969000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5.0176999999999996</v>
       </c>
@@ -28743,17 +28795,17 @@
       <c r="C7">
         <v>38.158000000000001</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.0176999999999996</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>99.341999999999999</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>38.158000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8.1016999999999992</v>
       </c>
@@ -28763,17 +28815,17 @@
       <c r="C8">
         <v>36.076999999999998</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>8.1016999999999992</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>99.394999999999996</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>36.076999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>29.486999999999998</v>
       </c>
@@ -28783,17 +28835,17 @@
       <c r="C9">
         <v>30.466000000000001</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>29.486999999999998</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>99.457999999999998</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>30.466000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>121.31</v>
       </c>
@@ -28803,49 +28855,52 @@
       <c r="C10">
         <v>24.324000000000002</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>121.31</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>99.5</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>24.324000000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744F028F-9372-4799-8DBC-82AF85489E42}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -28855,17 +28910,23 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.88261999999999996</v>
       </c>
@@ -28875,17 +28936,17 @@
       <c r="C3">
         <v>48.13</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.88261999999999996</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>88.254000000000005</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>48.13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12.097</v>
       </c>
@@ -28895,17 +28956,17 @@
       <c r="C4">
         <v>36.761000000000003</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>12.097</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>93.706999999999994</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>36.761000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30.933</v>
       </c>
@@ -28915,17 +28976,17 @@
       <c r="C5">
         <v>32.683999999999997</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>30.933</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>95.56</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>32.683999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>64.763000000000005</v>
       </c>
@@ -28935,17 +28996,17 @@
       <c r="C6">
         <v>29.475000000000001</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>64.763000000000005</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>97.034000000000006</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>29.475000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>103.23</v>
       </c>
@@ -28955,17 +29016,17 @@
       <c r="C7">
         <v>27.45</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>103.23</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>97.915999999999997</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>27.45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>136.19999999999999</v>
       </c>
@@ -28975,17 +29036,17 @@
       <c r="C8">
         <v>26.245999999999999</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>136.19999999999999</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>98.361000000000004</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>26.245999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>201.94</v>
       </c>
@@ -28995,17 +29056,17 @@
       <c r="C9">
         <v>24.536000000000001</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>201.94</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>98.963999999999999</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>24.536000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>344.75</v>
       </c>
@@ -29015,49 +29076,52 @@
       <c r="C10">
         <v>22.213000000000001</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>344.75</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>99.34</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>22.213000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09151AA-09E6-436E-807C-9287DBA93F6F}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -29067,17 +29131,23 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.3829</v>
       </c>
@@ -29087,17 +29157,17 @@
       <c r="C3">
         <v>41.067</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.3829</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>56.726999999999997</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>41.067</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7.3941999999999997</v>
       </c>
@@ -29107,17 +29177,17 @@
       <c r="C4">
         <v>33.786000000000001</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>7.3941999999999997</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>82.197999999999993</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>33.786000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12.006</v>
       </c>
@@ -29127,17 +29197,17 @@
       <c r="C5">
         <v>31.68</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>12.006</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>88.186000000000007</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>31.68</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>19.071999999999999</v>
       </c>
@@ -29147,17 +29217,17 @@
       <c r="C6">
         <v>29.67</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>19.071999999999999</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>92.224000000000004</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>29.67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>28.347999999999999</v>
       </c>
@@ -29167,17 +29237,17 @@
       <c r="C7">
         <v>27.949000000000002</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>28.347999999999999</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>94.492000000000004</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>27.949000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>37.44</v>
       </c>
@@ -29187,17 +29257,17 @@
       <c r="C8">
         <v>26.741</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>37.44</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>95.515000000000001</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>26.741</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>68.641000000000005</v>
       </c>
@@ -29207,17 +29277,17 @@
       <c r="C9">
         <v>24.109000000000002</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>68.641000000000005</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>97.007000000000005</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>24.109000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>141.81</v>
       </c>
@@ -29227,49 +29297,52 @@
       <c r="C10">
         <v>20.957000000000001</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>141.81</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>97.971999999999994</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>20.957000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959D0C26-5F41-4076-8929-AD8585CA492F}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -29279,17 +29352,23 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.54644000000000004</v>
       </c>
@@ -29299,17 +29378,17 @@
       <c r="C3">
         <v>45.033999999999999</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.54644000000000004</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>91.275000000000006</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>45.033999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.3686</v>
       </c>
@@ -29319,17 +29398,17 @@
       <c r="C4">
         <v>41.046999999999997</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.3686</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>96.763000000000005</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>41.046999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.4304999999999999</v>
       </c>
@@ -29339,17 +29418,17 @@
       <c r="C5">
         <v>38.552999999999997</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2.4304999999999999</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>98.058999999999997</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>38.552999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.7606999999999999</v>
       </c>
@@ -29359,17 +29438,17 @@
       <c r="C6">
         <v>35.633000000000003</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4.7606999999999999</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>98.843999999999994</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>35.633000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8.5946999999999996</v>
       </c>
@@ -29379,17 +29458,17 @@
       <c r="C7">
         <v>33.067</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8.5946999999999996</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>99.179000000000002</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>33.067</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>14.877000000000001</v>
       </c>
@@ -29399,17 +29478,17 @@
       <c r="C8">
         <v>30.684999999999999</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>14.877000000000001</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>99.298000000000002</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>30.684999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>40.177999999999997</v>
       </c>
@@ -29419,17 +29498,17 @@
       <c r="C9">
         <v>26.37</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>40.177999999999997</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>99.453000000000003</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>26.37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>127.42</v>
       </c>
@@ -29439,49 +29518,52 @@
       <c r="C10">
         <v>21.356999999999999</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>127.42</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>99.537999999999997</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>21.356999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01293804-D971-48F4-A250-FE849F775FBF}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -29491,17 +29573,23 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.8757999999999999</v>
       </c>
@@ -29511,17 +29599,17 @@
       <c r="C3">
         <v>35.67</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>5.8757999999999999</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>22.158999999999999</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>35.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>131.16</v>
       </c>
@@ -29531,17 +29619,17 @@
       <c r="C4">
         <v>22.181999999999999</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>131.16</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>51.023000000000003</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>22.181999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>500.76</v>
       </c>
@@ -29551,17 +29639,17 @@
       <c r="C5">
         <v>16.364000000000001</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>500.76</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>63.896999999999998</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>16.364000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1730.4</v>
       </c>
@@ -29571,17 +29659,17 @@
       <c r="C6">
         <v>10.978999999999999</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1730.4</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>76.424999999999997</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>10.978999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3801.4</v>
       </c>
@@ -29591,17 +29679,17 @@
       <c r="C7">
         <v>7.5609000000000002</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3801.4</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>87.228999999999999</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>7.5609000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4548.6000000000004</v>
       </c>
@@ -29611,17 +29699,17 @@
       <c r="C8">
         <v>6.7815000000000003</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>4548.6000000000004</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>92.254999999999995</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>6.7815000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5045.8999999999996</v>
       </c>
@@ -29631,17 +29719,17 @@
       <c r="C9">
         <v>6.3310000000000004</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>5045.8999999999996</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>96.665000000000006</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>6.3310000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5432.2</v>
       </c>
@@ -29651,22 +29739,23 @@
       <c r="C10">
         <v>6.0106000000000002</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>5432.2</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>98.918000000000006</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>6.0106000000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data_analysis.xlsx
+++ b/Data_analysis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220D0B94-D685-4C93-99E3-4BDE1B085D53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BA31C4-E75A-4EC3-88BD-53B595418864}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="candados" sheetId="1" r:id="rId1"/>
@@ -27556,7 +27556,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27611,6 +27611,9 @@
       <c r="C3">
         <v>37.085999999999999</v>
       </c>
+      <c r="D3">
+        <v>0.99570000000000003</v>
+      </c>
       <c r="F3">
         <v>3.802</v>
       </c>
@@ -27619,6 +27622,9 @@
       </c>
       <c r="H3">
         <v>37.085999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.99570000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -27631,6 +27637,9 @@
       <c r="C4">
         <v>28.324999999999999</v>
       </c>
+      <c r="D4">
+        <v>0.97448999999999997</v>
+      </c>
       <c r="F4">
         <v>28.584</v>
       </c>
@@ -27639,6 +27648,9 @@
       </c>
       <c r="H4">
         <v>28.324999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.97448999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -27651,6 +27663,9 @@
       <c r="C5">
         <v>25.303999999999998</v>
       </c>
+      <c r="D5">
+        <v>0.95431999999999995</v>
+      </c>
       <c r="F5">
         <v>57.307000000000002</v>
       </c>
@@ -27659,6 +27674,9 @@
       </c>
       <c r="H5">
         <v>25.303999999999998</v>
+      </c>
+      <c r="I5">
+        <v>0.95431999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -27671,6 +27689,9 @@
       <c r="C6">
         <v>22.956</v>
       </c>
+      <c r="D6">
+        <v>0.92718999999999996</v>
+      </c>
       <c r="F6">
         <v>98.405000000000001</v>
       </c>
@@ -27679,6 +27700,9 @@
       </c>
       <c r="H6">
         <v>22.956</v>
+      </c>
+      <c r="I6">
+        <v>0.92718999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -27691,6 +27715,9 @@
       <c r="C7">
         <v>21.367999999999999</v>
       </c>
+      <c r="D7">
+        <v>0.89866000000000001</v>
+      </c>
       <c r="F7">
         <v>141.84</v>
       </c>
@@ -27699,6 +27726,9 @@
       </c>
       <c r="H7">
         <v>21.367999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.89866000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -27711,6 +27741,9 @@
       <c r="C8">
         <v>20.408000000000001</v>
       </c>
+      <c r="D8">
+        <v>0.87607000000000002</v>
+      </c>
       <c r="F8">
         <v>176.95</v>
       </c>
@@ -27719,6 +27752,9 @@
       </c>
       <c r="H8">
         <v>20.408000000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.87607000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -27731,6 +27767,9 @@
       <c r="C9">
         <v>18.381</v>
       </c>
+      <c r="D9">
+        <v>0.81040999999999996</v>
+      </c>
       <c r="F9">
         <v>282.2</v>
       </c>
@@ -27739,6 +27778,9 @@
       </c>
       <c r="H9">
         <v>18.381</v>
+      </c>
+      <c r="I9">
+        <v>0.81040999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -27751,6 +27793,9 @@
       <c r="C10">
         <v>15.888</v>
       </c>
+      <c r="D10">
+        <v>0.69149000000000005</v>
+      </c>
       <c r="F10">
         <v>501.02</v>
       </c>
@@ -27759,6 +27804,9 @@
       </c>
       <c r="H10">
         <v>15.888</v>
+      </c>
+      <c r="I10">
+        <v>0.69149000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -27777,7 +27825,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27832,6 +27880,9 @@
       <c r="C3">
         <v>47.003999999999998</v>
       </c>
+      <c r="D3">
+        <v>0.99997999999999998</v>
+      </c>
       <c r="F3">
         <v>0.54688000000000003</v>
       </c>
@@ -27840,6 +27891,9 @@
       </c>
       <c r="H3">
         <v>47.003999999999998</v>
+      </c>
+      <c r="I3">
+        <v>0.99997999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -27852,6 +27906,9 @@
       <c r="C4">
         <v>29.945</v>
       </c>
+      <c r="D4">
+        <v>0.99909000000000003</v>
+      </c>
       <c r="F4">
         <v>27.780999999999999</v>
       </c>
@@ -27860,6 +27917,9 @@
       </c>
       <c r="H4">
         <v>29.945</v>
+      </c>
+      <c r="I4">
+        <v>0.99909000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -27872,6 +27932,9 @@
       <c r="C5">
         <v>28.747</v>
       </c>
+      <c r="D5">
+        <v>0.99882000000000004</v>
+      </c>
       <c r="F5">
         <v>36.609000000000002</v>
       </c>
@@ -27880,6 +27943,9 @@
       </c>
       <c r="H5">
         <v>28.747</v>
+      </c>
+      <c r="I5">
+        <v>0.99882000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -27892,6 +27958,9 @@
       <c r="C6">
         <v>20.065999999999999</v>
       </c>
+      <c r="D6">
+        <v>0.99084000000000005</v>
+      </c>
       <c r="F6">
         <v>270.2</v>
       </c>
@@ -27900,6 +27969,9 @@
       </c>
       <c r="H6">
         <v>20.065999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.99084000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -27912,6 +27984,9 @@
       <c r="C7">
         <v>14.99</v>
       </c>
+      <c r="D7">
+        <v>0.96897</v>
+      </c>
       <c r="F7">
         <v>869.44</v>
       </c>
@@ -27920,6 +27995,9 @@
       </c>
       <c r="H7">
         <v>14.99</v>
+      </c>
+      <c r="I7">
+        <v>0.96897</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -27932,6 +28010,9 @@
       <c r="C8">
         <v>12.680999999999999</v>
       </c>
+      <c r="D8">
+        <v>0.94593000000000005</v>
+      </c>
       <c r="F8">
         <v>1479.8</v>
       </c>
@@ -27940,6 +28021,9 @@
       </c>
       <c r="H8">
         <v>12.680999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.94593000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -27952,6 +28036,9 @@
       <c r="C9">
         <v>6.5787000000000004</v>
       </c>
+      <c r="D9">
+        <v>0.74150000000000005</v>
+      </c>
       <c r="F9">
         <v>6031.1</v>
       </c>
@@ -27960,6 +28047,9 @@
       </c>
       <c r="H9">
         <v>6.5787000000000004</v>
+      </c>
+      <c r="I9">
+        <v>0.74150000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -27972,6 +28062,9 @@
       <c r="C10">
         <v>5.9440999999999997</v>
       </c>
+      <c r="D10">
+        <v>0.71897</v>
+      </c>
       <c r="F10">
         <v>6980</v>
       </c>
@@ -27980,6 +28073,9 @@
       </c>
       <c r="H10">
         <v>5.9440999999999997</v>
+      </c>
+      <c r="I10">
+        <v>0.71897</v>
       </c>
     </row>
   </sheetData>
@@ -27997,7 +28093,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28052,6 +28148,9 @@
       <c r="C3">
         <v>51.899000000000001</v>
       </c>
+      <c r="D3">
+        <v>0.99999000000000005</v>
+      </c>
       <c r="F3">
         <v>0.20832999999999999</v>
       </c>
@@ -28060,6 +28159,9 @@
       </c>
       <c r="H3">
         <v>51.899000000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.99999000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -28072,6 +28174,9 @@
       <c r="C4">
         <v>51.899000000000001</v>
       </c>
+      <c r="D4">
+        <v>0.99999000000000005</v>
+      </c>
       <c r="F4">
         <v>0.20832999999999999</v>
       </c>
@@ -28080,6 +28185,9 @@
       </c>
       <c r="H4">
         <v>51.899000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.99999000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -28092,6 +28200,9 @@
       <c r="C5">
         <v>51.106999999999999</v>
       </c>
+      <c r="D5">
+        <v>0.99999000000000005</v>
+      </c>
       <c r="F5">
         <v>0.25</v>
       </c>
@@ -28100,6 +28211,9 @@
       </c>
       <c r="H5">
         <v>51.106999999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.99999000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -28112,6 +28226,9 @@
       <c r="C6">
         <v>47.427</v>
       </c>
+      <c r="D6">
+        <v>0.99992000000000003</v>
+      </c>
       <c r="F6">
         <v>0.58333000000000002</v>
       </c>
@@ -28120,6 +28237,9 @@
       </c>
       <c r="H6">
         <v>47.427</v>
+      </c>
+      <c r="I6">
+        <v>0.99992000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -28132,6 +28252,9 @@
       <c r="C7">
         <v>46.584000000000003</v>
       </c>
+      <c r="D7">
+        <v>0.99994000000000005</v>
+      </c>
       <c r="F7">
         <v>0.70833000000000002</v>
       </c>
@@ -28140,6 +28263,9 @@
       </c>
       <c r="H7">
         <v>46.584000000000003</v>
+      </c>
+      <c r="I7">
+        <v>0.99994000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -28152,6 +28278,9 @@
       <c r="C8">
         <v>38.718000000000004</v>
       </c>
+      <c r="D8">
+        <v>0.95384000000000002</v>
+      </c>
       <c r="F8">
         <v>4.3333000000000004</v>
       </c>
@@ -28160,6 +28289,9 @@
       </c>
       <c r="H8">
         <v>38.718000000000004</v>
+      </c>
+      <c r="I8">
+        <v>0.95384000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -28172,6 +28304,9 @@
       <c r="C9">
         <v>42.454000000000001</v>
       </c>
+      <c r="D9">
+        <v>0.95411999999999997</v>
+      </c>
       <c r="F9">
         <v>1.8332999999999999</v>
       </c>
@@ -28180,6 +28315,9 @@
       </c>
       <c r="H9">
         <v>42.454000000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.95411999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -28192,6 +28330,9 @@
       <c r="C10">
         <v>25.193000000000001</v>
       </c>
+      <c r="D10">
+        <v>0.99373999999999996</v>
+      </c>
       <c r="F10">
         <v>97.582999999999998</v>
       </c>
@@ -28200,6 +28341,9 @@
       </c>
       <c r="H10">
         <v>25.193000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.99373999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -28218,7 +28362,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28273,6 +28417,9 @@
       <c r="C3">
         <v>44.280999999999999</v>
       </c>
+      <c r="D3">
+        <v>0.99995000000000001</v>
+      </c>
       <c r="F3">
         <v>0.91712000000000005</v>
       </c>
@@ -28281,6 +28428,9 @@
       </c>
       <c r="H3">
         <v>44.280999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.99995000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -28293,6 +28443,9 @@
       <c r="C4">
         <v>34.131</v>
       </c>
+      <c r="D4">
+        <v>0.99936999999999998</v>
+      </c>
       <c r="F4">
         <v>9.4936000000000007</v>
       </c>
@@ -28301,6 +28454,9 @@
       </c>
       <c r="H4">
         <v>34.131</v>
+      </c>
+      <c r="I4">
+        <v>0.99936999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -28313,6 +28469,9 @@
       <c r="C5">
         <v>30.192</v>
       </c>
+      <c r="D5">
+        <v>0.99843999999999999</v>
+      </c>
       <c r="F5">
         <v>23.516999999999999</v>
       </c>
@@ -28321,6 +28480,9 @@
       </c>
       <c r="H5">
         <v>30.192</v>
+      </c>
+      <c r="I5">
+        <v>0.99843999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -28333,6 +28495,9 @@
       <c r="C6">
         <v>27.477</v>
       </c>
+      <c r="D6">
+        <v>0.99716000000000005</v>
+      </c>
       <c r="F6">
         <v>43.939</v>
       </c>
@@ -28341,6 +28506,9 @@
       </c>
       <c r="H6">
         <v>27.477</v>
+      </c>
+      <c r="I6">
+        <v>0.99716000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -28353,6 +28521,9 @@
       <c r="C7">
         <v>25.654</v>
       </c>
+      <c r="D7">
+        <v>0.99560999999999999</v>
+      </c>
       <c r="F7">
         <v>66.86</v>
       </c>
@@ -28361,6 +28532,9 @@
       </c>
       <c r="H7">
         <v>25.654</v>
+      </c>
+      <c r="I7">
+        <v>0.99560999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -28373,6 +28547,9 @@
       <c r="C8">
         <v>25.015999999999998</v>
       </c>
+      <c r="D8">
+        <v>0.99482000000000004</v>
+      </c>
       <c r="F8">
         <v>77.442999999999998</v>
       </c>
@@ -28381,6 +28558,9 @@
       </c>
       <c r="H8">
         <v>25.015999999999998</v>
+      </c>
+      <c r="I8">
+        <v>0.99482000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -28393,6 +28573,9 @@
       <c r="C9">
         <v>22.901</v>
       </c>
+      <c r="D9">
+        <v>0.99195</v>
+      </c>
       <c r="F9">
         <v>126.02</v>
       </c>
@@ -28401,6 +28584,9 @@
       </c>
       <c r="H9">
         <v>22.901</v>
+      </c>
+      <c r="I9">
+        <v>0.99195</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -28413,6 +28599,9 @@
       <c r="C10">
         <v>19.584</v>
       </c>
+      <c r="D10">
+        <v>0.98395999999999995</v>
+      </c>
       <c r="F10">
         <v>270.49</v>
       </c>
@@ -28421,6 +28610,9 @@
       </c>
       <c r="H10">
         <v>19.584</v>
+      </c>
+      <c r="I10">
+        <v>0.98395999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -28439,7 +28631,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D3" sqref="D3:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28494,6 +28686,9 @@
       <c r="C3">
         <v>32.543999999999997</v>
       </c>
+      <c r="D3">
+        <v>0.99553999999999998</v>
+      </c>
       <c r="F3">
         <v>2.0173999999999999</v>
       </c>
@@ -28502,6 +28697,9 @@
       </c>
       <c r="H3">
         <v>32.543999999999997</v>
+      </c>
+      <c r="I3">
+        <v>0.99553999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -28514,6 +28712,9 @@
       <c r="C4">
         <v>21.126000000000001</v>
       </c>
+      <c r="D4">
+        <v>0.96150999999999998</v>
+      </c>
       <c r="F4">
         <v>27.963000000000001</v>
       </c>
@@ -28522,6 +28723,9 @@
       </c>
       <c r="H4">
         <v>21.126000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.96150999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -28534,6 +28738,9 @@
       <c r="C5">
         <v>16.890999999999998</v>
       </c>
+      <c r="D5">
+        <v>0.93686000000000003</v>
+      </c>
       <c r="F5">
         <v>74.153000000000006</v>
       </c>
@@ -28542,6 +28749,9 @@
       </c>
       <c r="H5">
         <v>16.890999999999998</v>
+      </c>
+      <c r="I5">
+        <v>0.93686000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -28554,6 +28764,9 @@
       <c r="C6">
         <v>13.736000000000001</v>
       </c>
+      <c r="D6">
+        <v>0.90552999999999995</v>
+      </c>
       <c r="F6">
         <v>153.32</v>
       </c>
@@ -28562,6 +28775,9 @@
       </c>
       <c r="H6">
         <v>13.736000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.90552999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -28574,6 +28790,9 @@
       <c r="C7">
         <v>11.715</v>
       </c>
+      <c r="D7">
+        <v>0.88265000000000005</v>
+      </c>
       <c r="F7">
         <v>244.2</v>
       </c>
@@ -28582,6 +28801,9 @@
       </c>
       <c r="H7">
         <v>11.715</v>
+      </c>
+      <c r="I7">
+        <v>0.88265000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -28594,6 +28816,9 @@
       <c r="C8">
         <v>10.648</v>
       </c>
+      <c r="D8">
+        <v>0.83316999999999997</v>
+      </c>
       <c r="F8">
         <v>312.17</v>
       </c>
@@ -28602,6 +28827,9 @@
       </c>
       <c r="H8">
         <v>10.648</v>
+      </c>
+      <c r="I8">
+        <v>0.83316999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -28614,6 +28842,9 @@
       <c r="C9">
         <v>8.7619000000000007</v>
       </c>
+      <c r="D9">
+        <v>0.78964000000000001</v>
+      </c>
       <c r="F9">
         <v>481.96</v>
       </c>
@@ -28622,6 +28853,9 @@
       </c>
       <c r="H9">
         <v>8.7619000000000007</v>
+      </c>
+      <c r="I9">
+        <v>0.78964000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -28634,6 +28868,9 @@
       <c r="C10">
         <v>7.0106000000000002</v>
       </c>
+      <c r="D10">
+        <v>0.72690999999999995</v>
+      </c>
       <c r="F10">
         <v>721.35</v>
       </c>
@@ -28642,6 +28879,9 @@
       </c>
       <c r="H10">
         <v>7.0106000000000002</v>
+      </c>
+      <c r="I10">
+        <v>0.72690999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -28660,7 +28900,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28715,6 +28955,9 @@
       <c r="C3">
         <v>51.302999999999997</v>
       </c>
+      <c r="D3">
+        <v>0.99997000000000003</v>
+      </c>
       <c r="F3">
         <v>0.24318999999999999</v>
       </c>
@@ -28723,6 +28966,9 @@
       </c>
       <c r="H3">
         <v>51.302999999999997</v>
+      </c>
+      <c r="I3">
+        <v>0.99997000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -28735,6 +28981,9 @@
       <c r="C4">
         <v>49.17</v>
       </c>
+      <c r="D4">
+        <v>0.99995999999999996</v>
+      </c>
       <c r="F4">
         <v>0.39748</v>
       </c>
@@ -28743,6 +28992,9 @@
       </c>
       <c r="H4">
         <v>49.17</v>
+      </c>
+      <c r="I4">
+        <v>0.99995999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -28755,6 +29007,9 @@
       <c r="C5">
         <v>43.875999999999998</v>
       </c>
+      <c r="D5">
+        <v>0.99985999999999997</v>
+      </c>
       <c r="F5">
         <v>1.3449</v>
       </c>
@@ -28763,6 +29018,9 @@
       </c>
       <c r="H5">
         <v>43.875999999999998</v>
+      </c>
+      <c r="I5">
+        <v>0.99985999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -28775,6 +29033,9 @@
       <c r="C6">
         <v>40.969000000000001</v>
       </c>
+      <c r="D6">
+        <v>0.99975000000000003</v>
+      </c>
       <c r="F6">
         <v>2.6263999999999998</v>
       </c>
@@ -28783,6 +29044,9 @@
       </c>
       <c r="H6">
         <v>40.969000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.99975000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -28795,6 +29059,9 @@
       <c r="C7">
         <v>38.158000000000001</v>
       </c>
+      <c r="D7">
+        <v>0.99950000000000006</v>
+      </c>
       <c r="F7">
         <v>5.0176999999999996</v>
       </c>
@@ -28803,6 +29070,9 @@
       </c>
       <c r="H7">
         <v>38.158000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.99950000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -28815,6 +29085,9 @@
       <c r="C8">
         <v>36.076999999999998</v>
       </c>
+      <c r="D8">
+        <v>0.99922</v>
+      </c>
       <c r="F8">
         <v>8.1016999999999992</v>
       </c>
@@ -28823,6 +29096,9 @@
       </c>
       <c r="H8">
         <v>36.076999999999998</v>
+      </c>
+      <c r="I8">
+        <v>0.99922</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -28835,6 +29111,9 @@
       <c r="C9">
         <v>30.466000000000001</v>
       </c>
+      <c r="D9">
+        <v>0.99744999999999995</v>
+      </c>
       <c r="F9">
         <v>29.486999999999998</v>
       </c>
@@ -28843,6 +29122,9 @@
       </c>
       <c r="H9">
         <v>30.466000000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.99744999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -28855,6 +29137,9 @@
       <c r="C10">
         <v>24.324000000000002</v>
       </c>
+      <c r="D10">
+        <v>0.99014000000000002</v>
+      </c>
       <c r="F10">
         <v>121.31</v>
       </c>
@@ -28863,6 +29148,9 @@
       </c>
       <c r="H10">
         <v>24.324000000000002</v>
+      </c>
+      <c r="I10">
+        <v>0.99014000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -28881,7 +29169,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D3" sqref="D3:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28936,6 +29224,9 @@
       <c r="C3">
         <v>48.13</v>
       </c>
+      <c r="D3">
+        <v>0.99936999999999998</v>
+      </c>
       <c r="F3">
         <v>0.88261999999999996</v>
       </c>
@@ -28944,6 +29235,9 @@
       </c>
       <c r="H3">
         <v>48.13</v>
+      </c>
+      <c r="I3">
+        <v>0.99936999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -28956,6 +29250,9 @@
       <c r="C4">
         <v>36.761000000000003</v>
       </c>
+      <c r="D4">
+        <v>0.99426000000000003</v>
+      </c>
       <c r="F4">
         <v>12.097</v>
       </c>
@@ -28964,6 +29261,9 @@
       </c>
       <c r="H4">
         <v>36.761000000000003</v>
+      </c>
+      <c r="I4">
+        <v>0.99426000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -28976,6 +29276,9 @@
       <c r="C5">
         <v>32.683999999999997</v>
       </c>
+      <c r="D5">
+        <v>0.98748999999999998</v>
+      </c>
       <c r="F5">
         <v>30.933</v>
       </c>
@@ -28984,6 +29287,9 @@
       </c>
       <c r="H5">
         <v>32.683999999999997</v>
+      </c>
+      <c r="I5">
+        <v>0.98748999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -28996,6 +29302,9 @@
       <c r="C6">
         <v>29.475000000000001</v>
       </c>
+      <c r="D6">
+        <v>0.97794000000000003</v>
+      </c>
       <c r="F6">
         <v>64.763000000000005</v>
       </c>
@@ -29004,6 +29313,9 @@
       </c>
       <c r="H6">
         <v>29.475000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.97794000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -29016,6 +29328,9 @@
       <c r="C7">
         <v>27.45</v>
       </c>
+      <c r="D7">
+        <v>0.96396999999999999</v>
+      </c>
       <c r="F7">
         <v>103.23</v>
       </c>
@@ -29024,6 +29339,9 @@
       </c>
       <c r="H7">
         <v>27.45</v>
+      </c>
+      <c r="I7">
+        <v>0.96396999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -29036,6 +29354,9 @@
       <c r="C8">
         <v>26.245999999999999</v>
       </c>
+      <c r="D8">
+        <v>0.95170999999999994</v>
+      </c>
       <c r="F8">
         <v>136.19999999999999</v>
       </c>
@@ -29044,6 +29365,9 @@
       </c>
       <c r="H8">
         <v>26.245999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.95170999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -29056,6 +29380,9 @@
       <c r="C9">
         <v>24.536000000000001</v>
       </c>
+      <c r="D9">
+        <v>0.92237999999999998</v>
+      </c>
       <c r="F9">
         <v>201.94</v>
       </c>
@@ -29064,6 +29391,9 @@
       </c>
       <c r="H9">
         <v>24.536000000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.92237999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -29076,6 +29406,9 @@
       <c r="C10">
         <v>22.213000000000001</v>
       </c>
+      <c r="D10">
+        <v>0.90859999999999996</v>
+      </c>
       <c r="F10">
         <v>344.75</v>
       </c>
@@ -29084,6 +29417,9 @@
       </c>
       <c r="H10">
         <v>22.213000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.90859999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -29102,7 +29438,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I3" sqref="I3:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29157,6 +29493,9 @@
       <c r="C3">
         <v>41.067</v>
       </c>
+      <c r="D3">
+        <v>0.98906000000000005</v>
+      </c>
       <c r="F3">
         <v>1.3829</v>
       </c>
@@ -29165,6 +29504,9 @@
       </c>
       <c r="H3">
         <v>41.067</v>
+      </c>
+      <c r="I3">
+        <v>0.98906000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -29177,6 +29519,9 @@
       <c r="C4">
         <v>33.786000000000001</v>
       </c>
+      <c r="D4">
+        <v>0.95455999999999996</v>
+      </c>
       <c r="F4">
         <v>7.3941999999999997</v>
       </c>
@@ -29185,6 +29530,9 @@
       </c>
       <c r="H4">
         <v>33.786000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.95455999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -29197,6 +29545,9 @@
       <c r="C5">
         <v>31.68</v>
       </c>
+      <c r="D5">
+        <v>0.93623999999999996</v>
+      </c>
       <c r="F5">
         <v>12.006</v>
       </c>
@@ -29205,6 +29556,9 @@
       </c>
       <c r="H5">
         <v>31.68</v>
+      </c>
+      <c r="I5">
+        <v>0.93623999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -29217,6 +29571,9 @@
       <c r="C6">
         <v>29.67</v>
       </c>
+      <c r="D6">
+        <v>0.91202000000000005</v>
+      </c>
       <c r="F6">
         <v>19.071999999999999</v>
       </c>
@@ -29225,6 +29582,9 @@
       </c>
       <c r="H6">
         <v>29.67</v>
+      </c>
+      <c r="I6">
+        <v>0.91202000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -29237,6 +29597,9 @@
       <c r="C7">
         <v>27.949000000000002</v>
       </c>
+      <c r="D7">
+        <v>0.88529999999999998</v>
+      </c>
       <c r="F7">
         <v>28.347999999999999</v>
       </c>
@@ -29245,6 +29608,9 @@
       </c>
       <c r="H7">
         <v>27.949000000000002</v>
+      </c>
+      <c r="I7">
+        <v>0.88529999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -29257,6 +29623,9 @@
       <c r="C8">
         <v>26.741</v>
       </c>
+      <c r="D8">
+        <v>0.86212999999999995</v>
+      </c>
       <c r="F8">
         <v>37.44</v>
       </c>
@@ -29265,6 +29634,9 @@
       </c>
       <c r="H8">
         <v>26.741</v>
+      </c>
+      <c r="I8">
+        <v>0.86212999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -29277,6 +29649,9 @@
       <c r="C9">
         <v>24.109000000000002</v>
       </c>
+      <c r="D9">
+        <v>0.80323999999999995</v>
+      </c>
       <c r="F9">
         <v>68.641000000000005</v>
       </c>
@@ -29285,6 +29660,9 @@
       </c>
       <c r="H9">
         <v>24.109000000000002</v>
+      </c>
+      <c r="I9">
+        <v>0.80323999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -29297,6 +29675,9 @@
       <c r="C10">
         <v>20.957000000000001</v>
       </c>
+      <c r="D10">
+        <v>0.72185999999999995</v>
+      </c>
       <c r="F10">
         <v>141.81</v>
       </c>
@@ -29305,6 +29686,9 @@
       </c>
       <c r="H10">
         <v>20.957000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.72185999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -29323,7 +29707,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D3" sqref="D3:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29378,6 +29762,9 @@
       <c r="C3">
         <v>45.033999999999999</v>
       </c>
+      <c r="D3">
+        <v>0.99751000000000001</v>
+      </c>
       <c r="F3">
         <v>0.54644000000000004</v>
       </c>
@@ -29386,6 +29773,9 @@
       </c>
       <c r="H3">
         <v>45.033999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.99751000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -29398,6 +29788,9 @@
       <c r="C4">
         <v>41.046999999999997</v>
       </c>
+      <c r="D4">
+        <v>0.99426000000000003</v>
+      </c>
       <c r="F4">
         <v>1.3686</v>
       </c>
@@ -29406,6 +29799,9 @@
       </c>
       <c r="H4">
         <v>41.046999999999997</v>
+      </c>
+      <c r="I4">
+        <v>0.99426000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -29418,6 +29814,9 @@
       <c r="C5">
         <v>38.552999999999997</v>
       </c>
+      <c r="D5">
+        <v>0.99048000000000003</v>
+      </c>
       <c r="F5">
         <v>2.4304999999999999</v>
       </c>
@@ -29426,6 +29825,9 @@
       </c>
       <c r="H5">
         <v>38.552999999999997</v>
+      </c>
+      <c r="I5">
+        <v>0.99048000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -29438,6 +29840,9 @@
       <c r="C6">
         <v>35.633000000000003</v>
       </c>
+      <c r="D6">
+        <v>0.98233000000000004</v>
+      </c>
       <c r="F6">
         <v>4.7606999999999999</v>
       </c>
@@ -29446,6 +29851,9 @@
       </c>
       <c r="H6">
         <v>35.633000000000003</v>
+      </c>
+      <c r="I6">
+        <v>0.98233000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -29458,6 +29866,9 @@
       <c r="C7">
         <v>33.067</v>
       </c>
+      <c r="D7">
+        <v>0.97163999999999995</v>
+      </c>
       <c r="F7">
         <v>8.5946999999999996</v>
       </c>
@@ -29466,6 +29877,9 @@
       </c>
       <c r="H7">
         <v>33.067</v>
+      </c>
+      <c r="I7">
+        <v>0.97163999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -29478,6 +29892,9 @@
       <c r="C8">
         <v>30.684999999999999</v>
       </c>
+      <c r="D8">
+        <v>0.95726999999999995</v>
+      </c>
       <c r="F8">
         <v>14.877000000000001</v>
       </c>
@@ -29486,6 +29903,9 @@
       </c>
       <c r="H8">
         <v>30.684999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.95726999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -29498,6 +29918,9 @@
       <c r="C9">
         <v>26.37</v>
       </c>
+      <c r="D9">
+        <v>0.89941000000000004</v>
+      </c>
       <c r="F9">
         <v>40.177999999999997</v>
       </c>
@@ -29506,6 +29929,9 @@
       </c>
       <c r="H9">
         <v>26.37</v>
+      </c>
+      <c r="I9">
+        <v>0.89941000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -29518,6 +29944,9 @@
       <c r="C10">
         <v>21.356999999999999</v>
       </c>
+      <c r="D10">
+        <v>0.80120999999999998</v>
+      </c>
       <c r="F10">
         <v>127.42</v>
       </c>
@@ -29526,6 +29955,9 @@
       </c>
       <c r="H10">
         <v>21.356999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.80120999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -29544,7 +29976,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29599,6 +30031,9 @@
       <c r="C3">
         <v>35.67</v>
       </c>
+      <c r="D3">
+        <v>0.99939999999999996</v>
+      </c>
       <c r="F3">
         <v>5.8757999999999999</v>
       </c>
@@ -29607,6 +30042,9 @@
       </c>
       <c r="H3">
         <v>35.67</v>
+      </c>
+      <c r="I3">
+        <v>0.99939999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -29619,6 +30057,9 @@
       <c r="C4">
         <v>22.181999999999999</v>
       </c>
+      <c r="D4">
+        <v>0.98673999999999995</v>
+      </c>
       <c r="F4">
         <v>131.16</v>
       </c>
@@ -29627,6 +30068,9 @@
       </c>
       <c r="H4">
         <v>22.181999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.98673999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -29639,6 +30083,9 @@
       <c r="C5">
         <v>16.364000000000001</v>
       </c>
+      <c r="D5">
+        <v>0.95033000000000001</v>
+      </c>
       <c r="F5">
         <v>500.76</v>
       </c>
@@ -29647,6 +30094,9 @@
       </c>
       <c r="H5">
         <v>16.364000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.95033000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -29659,6 +30109,9 @@
       <c r="C6">
         <v>10.978999999999999</v>
       </c>
+      <c r="D6">
+        <v>0.83479000000000003</v>
+      </c>
       <c r="F6">
         <v>1730.4</v>
       </c>
@@ -29667,6 +30120,9 @@
       </c>
       <c r="H6">
         <v>10.978999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.83479000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -29679,6 +30135,9 @@
       <c r="C7">
         <v>7.5609000000000002</v>
       </c>
+      <c r="D7">
+        <v>0.58616000000000001</v>
+      </c>
       <c r="F7">
         <v>3801.4</v>
       </c>
@@ -29687,6 +30146,9 @@
       </c>
       <c r="H7">
         <v>7.5609000000000002</v>
+      </c>
+      <c r="I7">
+        <v>0.58616000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -29699,6 +30161,9 @@
       <c r="C8">
         <v>6.7815000000000003</v>
       </c>
+      <c r="D8">
+        <v>0.40745999999999999</v>
+      </c>
       <c r="F8">
         <v>4548.6000000000004</v>
       </c>
@@ -29707,6 +30172,9 @@
       </c>
       <c r="H8">
         <v>6.7815000000000003</v>
+      </c>
+      <c r="I8">
+        <v>0.40745999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -29719,6 +30187,9 @@
       <c r="C9">
         <v>6.3310000000000004</v>
       </c>
+      <c r="D9">
+        <v>0.25085000000000002</v>
+      </c>
       <c r="F9">
         <v>5045.8999999999996</v>
       </c>
@@ -29727,6 +30198,9 @@
       </c>
       <c r="H9">
         <v>6.3310000000000004</v>
+      </c>
+      <c r="I9">
+        <v>0.25085000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -29739,6 +30213,9 @@
       <c r="C10">
         <v>6.0106000000000002</v>
       </c>
+      <c r="D10">
+        <v>9.6688999999999997E-2</v>
+      </c>
       <c r="F10">
         <v>5432.2</v>
       </c>
@@ -29747,6 +30224,9 @@
       </c>
       <c r="H10">
         <v>6.0106000000000002</v>
+      </c>
+      <c r="I10">
+        <v>9.6688999999999997E-2</v>
       </c>
     </row>
   </sheetData>
